--- a/StructureDefinition-profile-Consent.xlsx
+++ b/StructureDefinition-profile-Consent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="459">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6566472-06:00</t>
+    <t>2026-02-09T22:05:43.047911-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -452,21 +452,126 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.sourceReference|0.0.1-snapshot-3}
+    <t>Consent.extension:period</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.period|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Consent.sourceReference from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A reference to a consent that links back to such a source, a reference to a document repository (e.g. XDS) that stores the original consent document.</t>
-  </si>
-  <si>
-    <t>The source can be contained inline (Attachment), referenced directly (Consent), referenced in a consent repository (DocumentReference), or simply by an identifier (Identifier), e.g. a CDA document id.</t>
+    <t>Cross-version extension for Consent.period from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Effective period for this Consent Resource and all provisions unless specified in that provision.</t>
+  </si>
+  <si>
+    <t>Element `Consent.period` is will have a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>Consent.extension:decision</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.decision|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Consent.decision from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Action to take - permit or deny - as default.</t>
+  </si>
+  <si>
+    <t>Element `Consent.decision` is will have a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
+  </si>
+  <si>
+    <t>Consent.extension:grantor</t>
+  </si>
+  <si>
+    <t>grantor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Consent.grantor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.grantor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Consent.grantor` is will have a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
+  </si>
+  <si>
+    <t>Consent.extension:manager</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Consent.manager from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.manager` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Consent.manager` is will have a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
+  </si>
+  <si>
+    <t>Consent.extension:controller</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Consent.controller from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.controller` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Consent.controller` is will have a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
+  </si>
+  <si>
+    <t>Consent.extension:sourceReference</t>
+  </si>
+  <si>
+    <t>sourceReference</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Consent.sourceReference from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that the target element context `Consent.source[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Consent`.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.sourceReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Consent.sourceReference` is mapped to FHIR R4 element `Consent.source[x]`.
+Note that the target element context `Consent.source[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Consent`.</t>
+  </si>
+  <si>
+    <t>Consent.extension:policyText</t>
+  </si>
+  <si>
+    <t>policyText</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Consent.policyText from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.policyText` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Consent.policyText` is will have a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
   </si>
   <si>
     <t>Consent.modifierExtension</t>
@@ -581,6 +686,12 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>Consent.status.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.status|0.0.1-snapshot-3}
 </t>
   </si>
@@ -591,6 +702,10 @@
     <t>Indicates the current state of this Consent resource.</t>
   </si>
   <si>
+    <t>Note that the target element context `Consent.status` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `Consent.status` is mapped to FHIR R4 element `Consent.status`.</t>
+  </si>
+  <si>
     <t>Consent.status.value</t>
   </si>
   <si>
@@ -749,17 +864,20 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.grantee|0.0.1-snapshot-3}
-</t>
+    <t>Consent.performer.extension:grantee</t>
+  </si>
+  <si>
+    <t>grantee</t>
   </si>
   <si>
     <t>Cross-version extension for Consent.grantee from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The entity responsible for complying with the Consent Directive, including any obligations or limitations on authorizations and enforcement of prohibitions.</t>
-  </si>
-  <si>
-    <t>In a fully computable consent, both grantee and grantor  will be listed as actors within the consent. The Grantee and Grantor elements are for ease of search only.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.grantee` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Consent.grantee` is mapped to FHIR R4 element `Consent.performer`.</t>
   </si>
   <si>
     <t>Consent.performer.reference</t>
@@ -872,6 +990,9 @@
     <t>The source on which this consent statement is based. The source might be a scanned original paper form, or a reference to a consent that links back to such a source, a reference to a document repository (e.g. XDS) that stores the original consent document.</t>
   </si>
   <si>
+    <t>The source can be contained inline (Attachment), referenced directly (Consent), referenced in a consent repository (DocumentReference), or simply by an identifier (Identifier), e.g. a CDA document id.</t>
+  </si>
+  <si>
     <t>Field 19 Informational Material Supplied Indicator</t>
   </si>
   <si>
@@ -975,6 +1096,41 @@
     <t>Consent.verification.extension</t>
   </si>
   <si>
+    <t>Consent.verification.extension:verificationType</t>
+  </si>
+  <si>
+    <t>verificationType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.verification.verificationType|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Consent.verification.verificationType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Extensible list of verification type starting with verification and re-validation.</t>
+  </si>
+  <si>
+    <t>Element `Consent.verification.verificationType` is will have a context of Consent.verification based on following the parent source element upwards and mapping to `Consent`.</t>
+  </si>
+  <si>
+    <t>Consent.verification.extension:verifiedBy</t>
+  </si>
+  <si>
+    <t>verifiedBy</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Consent.verification.verifiedBy from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.verification.verifiedBy` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Consent.verification.verifiedBy` is will have a context of Consent.verification based on following the parent source element upwards and mapping to `Consent`.</t>
+  </si>
+  <si>
     <t>Consent.verification.modifierExtension</t>
   </si>
   <si>
@@ -1026,6 +1182,26 @@
   </si>
   <si>
     <t>Consent.provision.extension</t>
+  </si>
+  <si>
+    <t>Consent.provision.extension:expression</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.provision.expression|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Consent.provision.expression from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A computable (FHIRPath or other) definition of what is controlled by this consent.</t>
+  </si>
+  <si>
+    <t>Element `Consent.provision.expression` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
+Element `Consent.provision.expression` is will have a context of Consent.provision based on following the parent source element upwards and mapping to `Consent`.</t>
   </si>
   <si>
     <t>Consent.provision.modifierExtension</t>
@@ -1582,7 +1758,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1591,9 +1767,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.2109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.80078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.44140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2563,7 +2739,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2662,12 +2838,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2676,7 +2854,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -2688,16 +2866,16 @@
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2756,7 +2934,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -2776,21 +2954,23 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -2802,20 +2982,18 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2863,7 +3041,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2872,7 +3050,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>140</v>
@@ -2884,7 +3062,7 @@
         <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2892,12 +3070,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -2915,19 +3095,19 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2941,7 +3121,7 @@
         <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
         <v>77</v>
@@ -2977,7 +3157,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2989,63 +3169,63 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>166</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3069,13 +3249,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -3093,41 +3273,43 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3136,7 +3318,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3148,15 +3330,17 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3205,19 +3389,19 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3234,18 +3418,20 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -3260,15 +3446,17 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3305,17 +3493,19 @@
         <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC15" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3344,21 +3534,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3370,16 +3562,16 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3429,7 +3621,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3438,7 +3630,7 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>140</v>
@@ -3458,42 +3650,46 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3541,19 +3737,19 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
@@ -3562,7 +3758,7 @@
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3570,10 +3766,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3581,30 +3777,32 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3617,7 +3815,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3629,13 +3827,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3653,13 +3851,13 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
@@ -3668,16 +3866,16 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
@@ -3696,19 +3894,19 @@
         <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>195</v>
@@ -3716,8 +3914,12 @@
       <c r="M19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3741,13 +3943,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3771,7 +3973,7 @@
         <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -3780,24 +3982,24 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3817,20 +4019,18 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3879,7 +4079,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3891,19 +4091,19 @@
         <v>77</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>209</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -3919,10 +4119,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -3931,20 +4131,18 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -3981,62 +4179,62 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="D22" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4045,19 +4243,19 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4107,7 +4305,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4116,30 +4314,30 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4162,13 +4360,13 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4219,7 +4417,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4240,7 +4438,7 @@
         <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4248,10 +4446,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4262,25 +4460,25 @@
         <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4307,43 +4505,43 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
@@ -4360,10 +4558,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4371,7 +4569,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4383,20 +4581,18 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4421,13 +4617,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4445,10 +4641,10 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>79</v>
@@ -4457,27 +4653,27 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4500,7 +4696,7 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>240</v>
@@ -4559,7 +4755,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4568,30 +4764,30 @@
         <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4614,16 +4810,16 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4649,13 +4845,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4673,7 +4869,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4688,35 +4884,35 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4728,16 +4924,16 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4787,13 +4983,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4802,24 +4998,24 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4839,20 +5035,18 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -4901,7 +5095,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4913,7 +5107,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -4922,7 +5116,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -4930,14 +5124,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4953,16 +5147,16 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>135</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>136</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5001,19 +5195,19 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5025,10 +5219,10 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5037,17 +5231,19 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5065,19 +5261,19 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5127,25 +5323,25 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5156,10 +5352,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5170,7 +5366,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5179,10 +5375,10 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>276</v>
@@ -5190,7 +5386,9 @@
       <c r="M32" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5239,16 +5437,16 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
@@ -5260,7 +5458,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5268,10 +5466,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5291,18 +5489,20 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5327,13 +5527,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5351,7 +5551,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5363,7 +5563,7 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5372,7 +5572,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5380,21 +5580,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5403,19 +5603,19 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5465,19 +5665,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5486,7 +5686,7 @@
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5494,46 +5694,44 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5581,19 +5779,19 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5610,21 +5808,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5633,16 +5831,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5693,22 +5891,22 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5717,15 +5915,15 @@
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5745,19 +5943,19 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5807,7 +6005,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5816,7 +6014,7 @@
         <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>101</v>
@@ -5825,7 +6023,7 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5836,10 +6034,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5850,7 +6048,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5859,23 +6057,19 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
       </c>
@@ -5899,13 +6093,13 @@
         <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>77</v>
@@ -5923,16 +6117,16 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>101</v>
@@ -5952,10 +6146,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5966,7 +6160,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -5975,16 +6169,16 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6035,19 +6229,19 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6056,7 +6250,7 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6064,21 +6258,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6090,15 +6284,17 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6147,19 +6343,19 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6168,7 +6364,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6176,14 +6372,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>147</v>
+        <v>320</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6196,24 +6392,26 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6261,7 +6459,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>180</v>
+        <v>323</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6282,7 +6480,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6290,46 +6488,42 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6377,19 +6571,19 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6398,7 +6592,7 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6406,10 +6600,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6417,7 +6611,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>89</v>
@@ -6429,18 +6623,20 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>308</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6489,16 +6685,16 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>101</v>
@@ -6518,10 +6714,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6541,19 +6737,23 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6577,13 +6777,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6601,7 +6801,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6610,7 +6810,7 @@
         <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>101</v>
@@ -6630,10 +6830,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6644,7 +6844,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6653,16 +6853,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6713,13 +6913,13 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
@@ -6742,10 +6942,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6765,16 +6965,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6825,7 +7025,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6837,7 +7037,7 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -6846,7 +7046,7 @@
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -6854,10 +7054,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6868,7 +7068,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -6880,13 +7080,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>231</v>
+        <v>136</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6925,31 +7125,29 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -6958,7 +7156,7 @@
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -6966,21 +7164,23 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="D48" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -6992,16 +7192,16 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>134</v>
+        <v>345</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>281</v>
+        <v>347</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>150</v>
+        <v>348</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7051,7 +7251,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7060,7 +7260,7 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>140</v>
@@ -7072,7 +7272,7 @@
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7080,46 +7280,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="D49" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>284</v>
+        <v>351</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7167,7 +7367,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7188,7 +7388,7 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7196,42 +7396,46 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7255,13 +7459,13 @@
         <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>77</v>
@@ -7279,19 +7483,19 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7300,7 +7504,7 @@
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7308,10 +7512,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7319,7 +7523,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>89</v>
@@ -7334,13 +7538,13 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7391,10 +7595,10 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>89</v>
@@ -7420,10 +7624,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7434,7 +7638,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7446,22 +7650,20 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q52" t="s" s="2">
-        <v>336</v>
-      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7505,13 +7707,13 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7534,10 +7736,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7560,13 +7762,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>230</v>
+        <v>364</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>231</v>
+        <v>365</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7617,7 +7819,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>178</v>
+        <v>363</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7629,7 +7831,7 @@
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7638,7 +7840,7 @@
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7646,21 +7848,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7669,20 +7871,18 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7731,19 +7931,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>180</v>
+        <v>366</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7752,7 +7952,7 @@
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -7760,46 +7960,42 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7847,19 +8043,19 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -7868,7 +8064,7 @@
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -7876,10 +8072,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7887,10 +8083,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -7902,13 +8098,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>341</v>
+        <v>135</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>342</v>
+        <v>136</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7935,43 +8131,41 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -7988,18 +8182,20 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>89</v>
@@ -8014,15 +8210,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8071,19 +8269,19 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>345</v>
+        <v>212</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8100,14 +8298,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8120,30 +8318,30 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q58" t="s" s="2">
-        <v>353</v>
-      </c>
+      <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8163,13 +8361,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8187,7 +8385,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8199,7 +8397,7 @@
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8208,7 +8406,7 @@
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8216,10 +8414,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8230,7 +8428,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8242,17 +8440,15 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>358</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8277,13 +8473,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8301,13 +8497,13 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
@@ -8330,10 +8526,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8344,7 +8540,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8356,17 +8552,15 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8391,13 +8585,13 @@
         <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>77</v>
@@ -8415,13 +8609,13 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
@@ -8444,10 +8638,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8467,25 +8661,25 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="R61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8505,13 +8699,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8529,7 +8723,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8558,10 +8752,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8572,7 +8766,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8581,20 +8775,18 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>377</v>
+        <v>265</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8619,13 +8811,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>354</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8643,19 +8835,19 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>376</v>
+        <v>210</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
@@ -8664,7 +8856,7 @@
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8672,21 +8864,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8695,19 +8887,19 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>330</v>
+        <v>134</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>385</v>
+        <v>182</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8757,19 +8949,19 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>382</v>
+        <v>212</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>77</v>
@@ -8778,7 +8970,7 @@
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -8786,14 +8978,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8806,28 +8998,30 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>275</v>
+        <v>134</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q64" t="s" s="2">
-        <v>389</v>
-      </c>
+      <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
         <v>77</v>
       </c>
@@ -8871,7 +9065,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>386</v>
+        <v>323</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8883,7 +9077,7 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
@@ -8892,7 +9086,7 @@
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -8900,10 +9094,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8911,7 +9105,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>89</v>
@@ -8926,13 +9120,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>230</v>
+        <v>395</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>231</v>
+        <v>396</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8959,13 +9153,13 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>77</v>
@@ -8983,10 +9177,10 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>178</v>
+        <v>394</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>89</v>
@@ -8995,7 +9189,7 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -9004,7 +9198,7 @@
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9012,21 +9206,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9038,17 +9232,15 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>400</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>280</v>
+        <v>401</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9097,19 +9289,19 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>180</v>
+        <v>399</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9118,7 +9310,7 @@
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9126,14 +9318,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9146,30 +9338,30 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>284</v>
+        <v>404</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="R67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9189,13 +9381,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>77</v>
+        <v>410</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9213,7 +9405,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>286</v>
+        <v>403</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9225,7 +9417,7 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9234,7 +9426,7 @@
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9242,10 +9434,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9253,10 +9445,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9268,15 +9460,17 @@
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>109</v>
+        <v>412</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9301,13 +9495,13 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>77</v>
@@ -9325,13 +9519,13 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
@@ -9354,10 +9548,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9365,10 +9559,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9380,15 +9574,17 @@
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9413,13 +9609,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9437,13 +9633,13 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
@@ -9466,10 +9662,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9489,18 +9685,20 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9525,13 +9723,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>77</v>
+        <v>429</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -9549,7 +9747,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9573,6 +9771,1026 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q73" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Consent.xlsx
+++ b/StructureDefinition-profile-Consent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2872" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="459">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.047911-06:00</t>
+    <t>2026-02-17T14:42:26.7726401-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -468,7 +468,7 @@
     <t>Effective period for this Consent Resource and all provisions unless specified in that provision.</t>
   </si>
   <si>
-    <t>Element `Consent.period` is will have a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
+    <t>Element `Consent.period` has a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -491,7 +491,7 @@
     <t>Action to take - permit or deny - as default.</t>
   </si>
   <si>
-    <t>Element `Consent.decision` is will have a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
+    <t>Element `Consent.decision` has a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
   </si>
   <si>
     <t>Consent.extension:grantor</t>
@@ -511,7 +511,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.grantor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.grantor` is will have a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
+Element `Consent.grantor` has a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
   </si>
   <si>
     <t>Consent.extension:manager</t>
@@ -527,7 +527,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.manager` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.manager` is will have a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
+Element `Consent.manager` has a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
   </si>
   <si>
     <t>Consent.extension:controller</t>
@@ -540,7 +540,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.controller` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.controller` is will have a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
+Element `Consent.controller` has a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
   </si>
   <si>
     <t>Consent.extension:sourceReference</t>
@@ -557,7 +557,7 @@
   <si>
     <t>Note that the target element context `Consent.source[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Consent`.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.sourceReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.sourceReference` is mapped to FHIR R4 element `Consent.source[x]`.
+Element `Consent.sourceReference` has is mapped to FHIR R4 element `Consent.source[x]`, but has no comparisons.
 Note that the target element context `Consent.source[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Consent`.</t>
   </si>
   <si>
@@ -571,7 +571,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.policyText` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.policyText` is will have a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
+Element `Consent.policyText` has a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
   </si>
   <si>
     <t>Consent.modifierExtension</t>
@@ -703,7 +703,7 @@
   </si>
   <si>
     <t>Note that the target element context `Consent.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `Consent.status` is mapped to FHIR R4 element `Consent.status`.</t>
+Element `Consent.status` has is mapped to FHIR R4 element `Consent.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>Consent.status.value</t>
@@ -877,7 +877,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.grantee` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.grantee` is mapped to FHIR R4 element `Consent.performer`.</t>
+Element `Consent.grantee` has is mapped to FHIR R4 element `Consent.performer`, but has no comparisons.</t>
   </si>
   <si>
     <t>Consent.performer.reference</t>
@@ -1015,10 +1015,23 @@
     <t>Consent.policy.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Consent.policy.extension:policyBasis</t>
+  </si>
+  <si>
+    <t>policyBasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.policyBasis|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Consent.policyBasis from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A Reference or URL used to uniquely identify the policy the organization will enforce for this Consent. This Reference or URL should be specific to the version of the policy and should be dereferencable to a computable policy of some form.</t>
+  </si>
+  <si>
+    <t>Element `Consent.policyBasis` has is mapped to FHIR R4 element `Consent.policy`, but has no comparisons.</t>
   </si>
   <si>
     <t>Consent.policy.modifierExtension</t>
@@ -1096,39 +1109,23 @@
     <t>Consent.verification.extension</t>
   </si>
   <si>
-    <t>Consent.verification.extension:verificationType</t>
-  </si>
-  <si>
-    <t>verificationType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.verification.verificationType|0.0.1-snapshot-3}
+    <t>Consent.verification.extension:verification</t>
+  </si>
+  <si>
+    <t>verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.verification|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Consent.verification.verificationType from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Extensible list of verification type starting with verification and re-validation.</t>
-  </si>
-  <si>
-    <t>Element `Consent.verification.verificationType` is will have a context of Consent.verification based on following the parent source element upwards and mapping to `Consent`.</t>
-  </si>
-  <si>
-    <t>Consent.verification.extension:verifiedBy</t>
-  </si>
-  <si>
-    <t>verifiedBy</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Consent.verification.verifiedBy from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.verification.verifiedBy` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.verification.verifiedBy` is will have a context of Consent.verification based on following the parent source element upwards and mapping to `Consent`.</t>
+    <t>Cross-version extension for Consent.verification from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Whether a treatment instruction (e.g. artificial respiration: yes or no) was verified with the patient, his/her family or another authorized person.</t>
+  </si>
+  <si>
+    <t>Element `Consent.verification` has is mapped to FHIR R4 element `Consent.verification`, but has no comparisons.</t>
   </si>
   <si>
     <t>Consent.verification.modifierExtension</t>
@@ -1184,24 +1181,21 @@
     <t>Consent.provision.extension</t>
   </si>
   <si>
-    <t>Consent.provision.extension:expression</t>
-  </si>
-  <si>
-    <t>expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.provision.expression|0.0.1-snapshot-3}
+    <t>Consent.provision.extension:provision</t>
+  </si>
+  <si>
+    <t>provision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.provision|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Consent.provision.expression from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A computable (FHIRPath or other) definition of what is controlled by this consent.</t>
-  </si>
-  <si>
-    <t>Element `Consent.provision.expression` is part of an existing definition because parent element `Consent.provision` requires a component extension (e.g., if this element is used as a content reference).
-Element `Consent.provision.expression` is will have a context of Consent.provision based on following the parent source element upwards and mapping to `Consent`.</t>
+    <t>Cross-version extension for Consent.provision from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Consent.provision` has is mapped to FHIR R4 element `Consent.provision`, but has no comparisons.
+Note available implied context: `Consent.provision.provision` because `Consent.provision.provision` is defined as a content reference to `Consent.provision`.</t>
   </si>
   <si>
     <t>Consent.provision.modifierExtension</t>
@@ -1251,6 +1245,12 @@
   </si>
   <si>
     <t>Consent.provision.actor.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Consent.provision.actor.modifierExtension</t>
@@ -1767,7 +1767,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.80078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.2109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.2109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.44140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6287,14 +6287,12 @@
         <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6331,16 +6329,14 @@
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>212</v>
@@ -6364,7 +6360,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6372,46 +6368,46 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="D41" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6459,7 +6455,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>323</v>
+        <v>212</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6468,7 +6464,7 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>140</v>
@@ -6480,7 +6476,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6488,33 +6484,33 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>325</v>
@@ -6522,8 +6518,12 @@
       <c r="M42" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6571,19 +6571,19 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6592,7 +6592,7 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6632,11 +6632,9 @@
         <v>329</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N43" t="s" s="2">
         <v>330</v>
       </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6694,7 +6692,7 @@
         <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>101</v>
@@ -6714,10 +6712,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6737,23 +6735,21 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>223</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="O44" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6777,13 +6773,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6801,7 +6797,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6810,7 +6806,7 @@
         <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>101</v>
@@ -6830,10 +6826,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6844,7 +6840,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6856,16 +6852,20 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6889,13 +6889,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6913,16 +6913,16 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>101</v>
@@ -6942,10 +6942,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6956,7 +6956,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6965,16 +6965,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>265</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7025,19 +7025,19 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>210</v>
+        <v>342</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7046,7 +7046,7 @@
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7054,10 +7054,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7068,7 +7068,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7080,13 +7080,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7125,29 +7125,31 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7156,7 +7158,7 @@
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7164,14 +7166,12 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7192,17 +7192,15 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>345</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>346</v>
+        <v>135</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7239,16 +7237,14 @@
         <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>212</v>
@@ -7260,7 +7256,7 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>140</v>
@@ -7280,13 +7276,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>77</v>
@@ -7296,7 +7292,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7308,16 +7304,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>156</v>
+        <v>349</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7376,7 +7372,7 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>140</v>
@@ -7396,14 +7392,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7425,10 +7421,10 @@
         <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>182</v>
@@ -7483,7 +7479,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7512,10 +7508,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7538,13 +7534,13 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7595,7 +7591,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>89</v>
@@ -7624,10 +7620,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7650,13 +7646,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7707,7 +7703,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7736,10 +7732,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7765,10 +7761,10 @@
         <v>247</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7819,7 +7815,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7848,10 +7844,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7877,10 +7873,10 @@
         <v>312</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7931,7 +7927,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7960,10 +7956,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8072,10 +8068,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8182,13 +8178,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>77</v>
@@ -8198,7 +8194,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8210,16 +8206,16 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8298,14 +8294,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8327,10 +8323,10 @@
         <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>182</v>
@@ -8385,7 +8381,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8414,10 +8410,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8443,10 +8439,10 @@
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8476,10 +8472,10 @@
         <v>199</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8497,7 +8493,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8526,10 +8522,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8552,13 +8548,13 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8609,7 +8605,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8638,10 +8634,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8667,10 +8663,10 @@
         <v>312</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8678,7 +8674,7 @@
         <v>77</v>
       </c>
       <c r="Q61" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="R61" t="s" s="2">
         <v>77</v>
@@ -8723,7 +8719,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8752,10 +8748,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8864,10 +8860,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8893,10 +8889,10 @@
         <v>134</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>182</v>
@@ -8985,7 +8981,7 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9007,10 +9003,10 @@
         <v>134</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>182</v>
@@ -9065,7 +9061,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9916,7 +9912,7 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>437</v>
@@ -10259,10 +10255,10 @@
         <v>134</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>182</v>
@@ -10351,7 +10347,7 @@
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10373,10 +10369,10 @@
         <v>134</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>182</v>
@@ -10431,7 +10427,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-profile-Consent.xlsx
+++ b/StructureDefinition-profile-Consent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7726401-06:00</t>
+    <t>2026-02-20T11:59:20.7673107-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Consent|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Consent</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>period</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.period|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.period}
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>decision</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.decision|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.decision}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>grantor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -692,7 +692,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.status}
 </t>
   </si>
   <si>
@@ -789,64 +789,7 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>Consent.dateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When this Consent was created or indexed</t>
-  </si>
-  <si>
-    <t>When this  Consent was issued / created / indexed.</t>
-  </si>
-  <si>
-    <t>This is not the time of the original consent, but the time that this statement was made or derived.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>Field 13/ Consent Decision Date</t>
-  </si>
-  <si>
-    <t>FinancialConsent effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Consent.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consentor
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1|Patient|4.0.1|Practitioner|4.0.1|RelatedPerson|4.0.1|PractitionerRole|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who is agreeing to the policy and rules</t>
-  </si>
-  <si>
-    <t>Either the Grantor, which is the entity responsible for granting the rights listed in a Consent Directive or the Grantee, which is the entity responsible for complying with the Consent Directive, including any obligations or limitations on authorizations and enforcement of prohibitions.</t>
-  </si>
-  <si>
-    <t>Commonly, the patient the consent pertains to is the consentor, but particularly for young and old people, it may be some other person - e.g. a legal guardian.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>Field 24/ ConsenterID</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>Consent.performer.id</t>
+    <t>Consent.patient.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -858,29 +801,29 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Consent.performer.extension</t>
+    <t>Consent.patient.extension</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>Consent.performer.extension:grantee</t>
-  </si>
-  <si>
-    <t>grantee</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Consent.grantee from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.grantee` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.grantee` has is mapped to FHIR R4 element `Consent.performer`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Consent.performer.reference</t>
+    <t>Consent.patient.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Consent.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/Practitioner in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Consent.subject` has is mapped to FHIR R4 element `Consent.patient`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Consent.patient.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -899,7 +842,7 @@
 </t>
   </si>
   <si>
-    <t>Consent.performer.type</t>
+    <t>Consent.patient.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -921,7 +864,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>Consent.performer.identifier</t>
+    <t>Consent.patient.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -942,19 +885,110 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>Consent.patient.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>Consent.dateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When this Consent was created or indexed</t>
+  </si>
+  <si>
+    <t>When this  Consent was issued / created / indexed.</t>
+  </si>
+  <si>
+    <t>This is not the time of the original consent, but the time that this statement was made or derived.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>Field 13/ Consent Decision Date</t>
+  </si>
+  <si>
+    <t>FinancialConsent effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Consent.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consentor
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1|Patient|4.0.1|Practitioner|4.0.1|RelatedPerson|4.0.1|PractitionerRole|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who is agreeing to the policy and rules</t>
+  </si>
+  <si>
+    <t>Either the Grantor, which is the entity responsible for granting the rights listed in a Consent Directive or the Grantee, which is the entity responsible for complying with the Consent Directive, including any obligations or limitations on authorizations and enforcement of prohibitions.</t>
+  </si>
+  <si>
+    <t>Commonly, the patient the consent pertains to is the consentor, but particularly for young and old people, it may be some other person - e.g. a legal guardian.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>Field 24/ ConsenterID</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>Consent.performer.id</t>
+  </si>
+  <si>
+    <t>Consent.performer.extension</t>
+  </si>
+  <si>
+    <t>Consent.performer.extension:grantee</t>
+  </si>
+  <si>
+    <t>grantee</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Consent.grantee from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.grantee` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Consent.grantee` has is mapped to FHIR R4 element `Consent.performer`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Consent.performer.reference</t>
+  </si>
+  <si>
+    <t>Consent.performer.type</t>
+  </si>
+  <si>
+    <t>Consent.performer.identifier</t>
+  </si>
+  <si>
     <t>Consent.performer.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Consent.organization</t>
@@ -1021,7 +1055,7 @@
     <t>policyBasis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.policyBasis|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.policyBasis}
 </t>
   </si>
   <si>
@@ -1115,7 +1149,7 @@
     <t>verification</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.verification|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.verification}
 </t>
   </si>
   <si>
@@ -1187,7 +1221,7 @@
     <t>provision</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.provision|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.provision}
 </t>
   </si>
   <si>
@@ -1345,7 +1379,7 @@
     <t>What purposes of use are controlled by this exception. If more than one label is specified, operations must have all the specified labels.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
   </si>
   <si>
     <t>Consent.provision.class</t>
@@ -1758,7 +1792,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN79"/>
+  <dimension ref="A1:AN86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1792,7 +1826,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="109.23828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.78125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.62890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4807,20 +4841,18 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
@@ -4869,7 +4901,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4881,31 +4913,31 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4921,20 +4953,18 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>135</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4971,19 +5001,19 @@
         <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4995,29 +5025,31 @@
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5038,15 +5070,17 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5095,19 +5129,19 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -5116,7 +5150,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5124,10 +5158,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5138,7 +5172,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5147,18 +5181,20 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5195,31 +5231,31 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5228,7 +5264,7 @@
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5236,14 +5272,12 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5261,19 +5295,19 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5299,13 +5333,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5323,19 +5357,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5344,7 +5378,7 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5352,10 +5386,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5378,16 +5412,16 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5437,7 +5471,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5446,7 +5480,7 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
@@ -5458,7 +5492,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5466,10 +5500,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5492,16 +5526,16 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5527,13 +5561,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5551,7 +5585,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5580,10 +5614,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5606,16 +5640,16 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5665,7 +5699,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5680,35 +5714,35 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
@@ -5720,16 +5754,16 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>207</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5779,13 +5813,13 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
@@ -5794,16 +5828,16 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
@@ -5815,14 +5849,14 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5831,16 +5865,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5891,39 +5925,39 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5934,7 +5968,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5943,20 +5977,18 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>135</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
@@ -5993,37 +6025,37 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6034,12 +6066,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6048,7 +6082,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6060,15 +6094,17 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>312</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6117,7 +6153,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6129,7 +6165,7 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6146,10 +6182,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6169,18 +6205,20 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6229,7 +6267,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6238,10 +6276,10 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6250,7 +6288,7 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6258,10 +6296,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6272,7 +6310,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6281,18 +6319,20 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6317,41 +6357,43 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>212</v>
+        <v>269</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6360,7 +6402,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6368,14 +6410,12 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6393,19 +6433,19 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>186</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6455,19 +6495,19 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6476,7 +6516,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6484,46 +6524,44 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6571,19 +6609,19 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6600,21 +6638,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6623,16 +6661,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>312</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6683,22 +6721,22 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6707,15 +6745,15 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6735,19 +6773,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6797,7 +6835,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6806,7 +6844,7 @@
         <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>101</v>
@@ -6815,7 +6853,7 @@
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6826,10 +6864,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6840,7 +6878,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6849,23 +6887,19 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>223</v>
+        <v>323</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6889,13 +6923,13 @@
         <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>341</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
@@ -6913,16 +6947,16 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>101</v>
@@ -6942,10 +6976,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6956,7 +6990,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6965,16 +6999,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>247</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>248</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7025,19 +7059,19 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>342</v>
+        <v>210</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7046,7 +7080,7 @@
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7054,10 +7088,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7068,7 +7102,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7080,13 +7114,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7125,31 +7159,29 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7158,7 +7190,7 @@
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7166,12 +7198,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7180,7 +7214,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7192,15 +7226,17 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>134</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>135</v>
+        <v>331</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7237,14 +7273,16 @@
         <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>212</v>
@@ -7256,7 +7294,7 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>140</v>
@@ -7276,16 +7314,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7298,24 +7334,26 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>349</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7363,7 +7401,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7372,7 +7410,7 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>140</v>
@@ -7384,7 +7422,7 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7392,46 +7430,42 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7479,19 +7513,19 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7500,7 +7534,7 @@
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7508,10 +7542,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7519,7 +7553,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>89</v>
@@ -7531,18 +7565,20 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>355</v>
+        <v>103</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7591,16 +7627,16 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>101</v>
@@ -7620,10 +7656,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7643,19 +7679,23 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>359</v>
+        <v>223</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7679,13 +7719,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7703,7 +7743,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7712,7 +7752,7 @@
         <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>101</v>
@@ -7732,10 +7772,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7746,7 +7786,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7755,16 +7795,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7815,13 +7855,13 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
@@ -7844,10 +7884,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7867,16 +7907,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>366</v>
+        <v>247</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>367</v>
+        <v>248</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7927,7 +7967,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>365</v>
+        <v>210</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7939,7 +7979,7 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7948,7 +7988,7 @@
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -7956,10 +7996,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7970,7 +8010,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -7982,13 +8022,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8027,31 +8067,29 @@
         <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8060,7 +8098,7 @@
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8068,12 +8106,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8094,15 +8134,17 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>134</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>135</v>
+        <v>361</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8139,14 +8181,16 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>212</v>
@@ -8158,7 +8202,7 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>140</v>
@@ -8178,16 +8222,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8200,24 +8242,26 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>372</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8265,7 +8309,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8274,7 +8318,7 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>140</v>
@@ -8286,7 +8330,7 @@
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8294,46 +8338,42 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>134</v>
+        <v>366</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8381,19 +8421,19 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8402,7 +8442,7 @@
         <v>77</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8410,10 +8450,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8433,16 +8473,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>109</v>
+        <v>370</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8469,13 +8509,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>379</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -8493,7 +8533,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8522,10 +8562,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8545,16 +8585,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8605,7 +8645,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8634,10 +8674,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8648,7 +8688,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8657,25 +8697,23 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q61" t="s" s="2">
-        <v>388</v>
-      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8719,13 +8757,13 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
@@ -8748,10 +8786,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8777,10 +8815,10 @@
         <v>207</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8852,7 +8890,7 @@
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8860,14 +8898,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8889,14 +8927,12 @@
         <v>134</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>391</v>
+        <v>135</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8933,16 +8969,14 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>212</v>
@@ -8966,7 +9000,7 @@
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -8974,14 +9008,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="D64" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8994,26 +9030,24 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>383</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9061,7 +9095,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9070,7 +9104,7 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>140</v>
@@ -9082,7 +9116,7 @@
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9090,42 +9124,46 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>395</v>
+        <v>336</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9149,13 +9187,13 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>398</v>
+        <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>77</v>
@@ -9173,19 +9211,19 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -9194,7 +9232,7 @@
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9202,10 +9240,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9213,7 +9251,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>89</v>
@@ -9225,16 +9263,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>400</v>
+        <v>109</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9261,13 +9299,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9285,10 +9323,10 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>89</v>
@@ -9314,10 +9352,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9328,7 +9366,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9340,24 +9378,20 @@
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>223</v>
+        <v>393</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q67" t="s" s="2">
-        <v>407</v>
-      </c>
+      <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9377,13 +9411,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>410</v>
+        <v>77</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9401,13 +9435,13 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
@@ -9430,10 +9464,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9453,25 +9487,25 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>412</v>
+        <v>323</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="R68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9491,13 +9525,13 @@
         <v>77</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>416</v>
+        <v>77</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>77</v>
@@ -9515,7 +9549,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9544,10 +9578,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9558,7 +9592,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9567,20 +9601,18 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>412</v>
+        <v>207</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>419</v>
+        <v>247</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9605,13 +9637,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9629,19 +9661,19 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>418</v>
+        <v>210</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -9650,7 +9682,7 @@
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9658,14 +9690,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9681,19 +9713,19 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>412</v>
+        <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>427</v>
+        <v>182</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9719,13 +9751,13 @@
         <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>428</v>
+        <v>77</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>429</v>
+        <v>77</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>77</v>
@@ -9743,7 +9775,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>424</v>
+        <v>212</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9755,7 +9787,7 @@
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
@@ -9764,7 +9796,7 @@
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -9772,14 +9804,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9792,24 +9824,26 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>431</v>
+        <v>336</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>432</v>
+        <v>337</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
       </c>
@@ -9833,13 +9867,13 @@
         <v>77</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>434</v>
+        <v>77</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>435</v>
+        <v>77</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>77</v>
@@ -9857,7 +9891,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>430</v>
+        <v>338</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9869,7 +9903,7 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
@@ -9878,7 +9912,7 @@
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -9886,10 +9920,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9897,7 +9931,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>89</v>
@@ -9909,20 +9943,18 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>382</v>
+        <v>223</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -9947,13 +9979,13 @@
         <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>77</v>
@@ -9971,10 +10003,10 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>436</v>
+        <v>405</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>89</v>
@@ -10000,10 +10032,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10011,10 +10043,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -10023,25 +10055,23 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>312</v>
+        <v>411</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q73" t="s" s="2">
-        <v>443</v>
-      </c>
+      <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10085,13 +10115,13 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
@@ -10106,7 +10136,7 @@
         <v>77</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>77</v>
@@ -10114,10 +10144,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10128,7 +10158,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10137,23 +10167,27 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>265</v>
+        <v>415</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="R74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10173,13 +10207,13 @@
         <v>77</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>77</v>
@@ -10197,19 +10231,19 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>210</v>
+        <v>414</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
@@ -10218,7 +10252,7 @@
         <v>77</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>77</v>
@@ -10226,14 +10260,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10249,19 +10283,19 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>134</v>
+        <v>423</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>182</v>
+        <v>426</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10287,13 +10321,13 @@
         <v>77</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>77</v>
@@ -10311,7 +10345,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>212</v>
+        <v>422</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10323,7 +10357,7 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -10332,7 +10366,7 @@
         <v>77</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>77</v>
@@ -10340,14 +10374,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10360,26 +10394,24 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>134</v>
+        <v>423</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>325</v>
+        <v>430</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>326</v>
+        <v>431</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10403,13 +10435,13 @@
         <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>77</v>
@@ -10427,7 +10459,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>327</v>
+        <v>429</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10439,7 +10471,7 @@
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
@@ -10448,7 +10480,7 @@
         <v>77</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>77</v>
@@ -10456,10 +10488,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10467,10 +10499,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -10482,15 +10514,17 @@
         <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>109</v>
+        <v>423</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10515,13 +10549,13 @@
         <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>77</v>
@@ -10539,13 +10573,13 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
@@ -10568,10 +10602,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10579,10 +10613,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
@@ -10594,15 +10628,17 @@
         <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>453</v>
+        <v>223</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10627,13 +10663,13 @@
         <v>77</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>77</v>
@@ -10651,13 +10687,13 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
@@ -10680,10 +10716,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10694,7 +10730,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -10703,18 +10739,20 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -10763,13 +10801,13 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
@@ -10787,6 +10825,798 @@
         <v>77</v>
       </c>
       <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q80" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Consent.xlsx
+++ b/StructureDefinition-profile-Consent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2399" uniqueCount="398">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7673107-06:00</t>
+    <t>2026-02-21T13:36:54.1742482-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Consent</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Consent|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -458,7 +458,7 @@
     <t>period</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.period}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.period|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>decision</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.decision}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.decision|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -492,86 +492,6 @@
   </si>
   <si>
     <t>Element `Consent.decision` has a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
-  </si>
-  <si>
-    <t>Consent.extension:grantor</t>
-  </si>
-  <si>
-    <t>grantor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Consent.grantor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner,http://hl7.org/fhir/StructureDefinition/PractitionerRole,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.grantor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.grantor` has a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
-  </si>
-  <si>
-    <t>Consent.extension:manager</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Consent.manager from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/Practitioner in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.manager` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.manager` has a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
-  </si>
-  <si>
-    <t>Consent.extension:controller</t>
-  </si>
-  <si>
-    <t>controller</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Consent.controller from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.controller` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.controller` has a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
-  </si>
-  <si>
-    <t>Consent.extension:sourceReference</t>
-  </si>
-  <si>
-    <t>sourceReference</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Consent.sourceReference from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/DocumentReference in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that the target element context `Consent.source[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Consent`.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.sourceReference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.sourceReference` has is mapped to FHIR R4 element `Consent.source[x]`, but has no comparisons.
-Note that the target element context `Consent.source[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Consent`.</t>
-  </si>
-  <si>
-    <t>Consent.extension:policyText</t>
-  </si>
-  <si>
-    <t>policyText</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Consent.policyText from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.policyText` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.policyText` has a context of Consent based on following the parent source element upwards and mapping to `Consent`.</t>
   </si>
   <si>
     <t>Consent.modifierExtension</t>
@@ -692,7 +612,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -703,7 +623,7 @@
   </si>
   <si>
     <t>Note that the target element context `Consent.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `Consent.status` has is mapped to FHIR R4 element `Consent.status`, but has no comparisons.</t>
+Element `Consent.status` is mapped to FHIR R4 element `Consent.status` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Consent.status.value</t>
@@ -789,117 +709,6 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>Consent.patient.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Consent.patient.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Consent.patient.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Consent.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/Practitioner in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.subject` has is mapped to FHIR R4 element `Consent.patient`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Consent.patient.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Consent.patient.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Consent.patient.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Consent.patient.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>Consent.dateTime</t>
   </si>
   <si>
@@ -957,40 +766,6 @@
     <t>FiveWs.actor</t>
   </si>
   <si>
-    <t>Consent.performer.id</t>
-  </si>
-  <si>
-    <t>Consent.performer.extension</t>
-  </si>
-  <si>
-    <t>Consent.performer.extension:grantee</t>
-  </si>
-  <si>
-    <t>grantee</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Consent.grantee from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/HealthcareService in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Consent.grantee` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Consent.grantee` has is mapped to FHIR R4 element `Consent.performer`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Consent.performer.reference</t>
-  </si>
-  <si>
-    <t>Consent.performer.type</t>
-  </si>
-  <si>
-    <t>Consent.performer.identifier</t>
-  </si>
-  <si>
-    <t>Consent.performer.display</t>
-  </si>
-  <si>
     <t>Consent.organization</t>
   </si>
   <si>
@@ -1046,26 +821,22 @@
     <t>Consent.policy.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Consent.policy.extension</t>
   </si>
   <si>
-    <t>Consent.policy.extension:policyBasis</t>
-  </si>
-  <si>
-    <t>policyBasis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.policyBasis}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Consent.policyBasis from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A Reference or URL used to uniquely identify the policy the organization will enforce for this Consent. This Reference or URL should be specific to the version of the policy and should be dereferencable to a computable policy of some form.</t>
-  </si>
-  <si>
-    <t>Element `Consent.policyBasis` has is mapped to FHIR R4 element `Consent.policy`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Consent.policy.modifierExtension</t>
@@ -1143,23 +914,23 @@
     <t>Consent.verification.extension</t>
   </si>
   <si>
-    <t>Consent.verification.extension:verification</t>
-  </si>
-  <si>
-    <t>verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.verification}
+    <t>Consent.verification.extension:verificationType</t>
+  </si>
+  <si>
+    <t>verificationType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.verification.verificationType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Consent.verification from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Whether a treatment instruction (e.g. artificial respiration: yes or no) was verified with the patient, his/her family or another authorized person.</t>
-  </si>
-  <si>
-    <t>Element `Consent.verification` has is mapped to FHIR R4 element `Consent.verification`, but has no comparisons.</t>
+    <t>Cross-version extension for Consent.verification.verificationType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Extensible list of verification type starting with verification and re-validation.</t>
+  </si>
+  <si>
+    <t>Element `Consent.verification.verificationType` has a context of Consent.verification based on following the parent source element upwards and mapping to `Consent`.</t>
   </si>
   <si>
     <t>Consent.verification.modifierExtension</t>
@@ -1215,21 +986,24 @@
     <t>Consent.provision.extension</t>
   </si>
   <si>
-    <t>Consent.provision.extension:provision</t>
-  </si>
-  <si>
-    <t>provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.provision}
+    <t>Consent.provision.extension:expression</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Consent.provision.expression|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Consent.provision from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Consent.provision` has is mapped to FHIR R4 element `Consent.provision`, but has no comparisons.
-Note available implied context: `Consent.provision.provision` because `Consent.provision.provision` is defined as a content reference to `Consent.provision`.</t>
+    <t>Cross-version extension for Consent.provision.expression from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A computable (FHIRPath or other) definition of what is controlled by this consent.</t>
+  </si>
+  <si>
+    <t>Element `Consent.provision.expression` has a context of Consent.provision based on following the parent source element upwards and mapping to `Consent`.
+Note available implied context: `Consent.provision.provision` because `Consent.provision.provision` is defined via a content reference to `Consent.provision`.</t>
   </si>
   <si>
     <t>Consent.provision.modifierExtension</t>
@@ -1281,12 +1055,6 @@
     <t>Consent.provision.actor.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Consent.provision.actor.modifierExtension</t>
   </si>
   <si>
@@ -1379,7 +1147,7 @@
     <t>What purposes of use are controlled by this exception. If more than one label is specified, operations must have all the specified labels.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
   </si>
   <si>
     <t>Consent.provision.class</t>
@@ -1792,7 +1560,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN86"/>
+  <dimension ref="A1:AN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1801,9 +1569,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.2109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.80078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.84375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1826,10 +1594,10 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="109.23828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.62890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.78125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3107,13 +2875,11 @@
         <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3126,24 +2892,26 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3191,7 +2959,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3212,7 +2980,7 @@
         <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3220,14 +2988,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s" s="2">
         <v>161</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3245,19 +3011,19 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3271,7 +3037,7 @@
         <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="U13" t="s" s="2">
         <v>77</v>
@@ -3307,7 +3073,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3319,63 +3085,63 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3399,13 +3165,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -3423,43 +3189,41 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3468,7 +3232,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>77</v>
@@ -3480,17 +3244,15 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3539,19 +3301,19 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>77</v>
@@ -3568,20 +3330,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>79</v>
@@ -3596,17 +3356,15 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3643,19 +3401,17 @@
         <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3684,46 +3440,46 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="D17" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3771,7 +3527,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3780,7 +3536,7 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>140</v>
@@ -3792,7 +3548,7 @@
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3800,10 +3556,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3814,7 +3570,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
@@ -3823,20 +3579,18 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3849,7 +3603,7 @@
         <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>77</v>
@@ -3885,39 +3639,39 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3940,20 +3694,16 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3977,13 +3727,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -4001,7 +3751,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>89</v>
@@ -4016,24 +3766,24 @@
         <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4041,10 +3791,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -4053,16 +3803,16 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4089,13 +3839,13 @@
         <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>77</v>
@@ -4113,39 +3863,39 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4153,11 +3903,11 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4165,18 +3915,20 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
@@ -4213,59 +3965,59 @@
         <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4277,19 +4029,19 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4339,50 +4091,50 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4391,18 +4143,20 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4451,68 +4205,68 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4539,13 +4293,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4563,13 +4317,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4578,7 +4332,7 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4587,15 +4341,15 @@
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4603,10 +4357,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4618,15 +4372,17 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4651,13 +4407,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4675,13 +4431,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4690,24 +4446,24 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4718,7 +4474,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4727,20 +4483,18 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4789,13 +4543,13 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
@@ -4804,24 +4558,24 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4844,13 +4598,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4901,7 +4655,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4922,7 +4676,7 @@
         <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4930,14 +4684,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4959,12 +4713,14 @@
         <v>134</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -5001,19 +4757,19 @@
         <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5034,7 +4790,7 @@
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5042,46 +4798,46 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5129,7 +4885,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5150,7 +4906,7 @@
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5158,10 +4914,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5181,20 +4937,18 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5243,7 +4997,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5252,7 +5006,7 @@
         <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>101</v>
@@ -5264,7 +5018,7 @@
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5272,10 +5026,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5295,19 +5049,19 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5333,13 +5087,13 @@
         <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>77</v>
@@ -5357,7 +5111,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5366,7 +5120,7 @@
         <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>101</v>
@@ -5378,7 +5132,7 @@
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5386,10 +5140,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5412,18 +5166,20 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5447,13 +5203,13 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>77</v>
@@ -5471,7 +5227,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5480,7 +5236,7 @@
         <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>101</v>
@@ -5492,7 +5248,7 @@
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5500,10 +5256,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5514,7 +5270,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5526,17 +5282,15 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5585,13 +5339,13 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
@@ -5606,7 +5360,7 @@
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5614,10 +5368,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5637,20 +5391,18 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5699,7 +5451,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>186</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5711,31 +5463,31 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>289</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5751,20 +5503,18 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5801,19 +5551,17 @@
         <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5825,29 +5573,31 @@
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5868,15 +5618,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5925,19 +5677,19 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5946,7 +5698,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5954,14 +5706,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5974,22 +5726,26 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6025,19 +5781,19 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6058,7 +5814,7 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6066,20 +5822,18 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
@@ -6091,20 +5845,18 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>156</v>
+        <v>295</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6153,19 +5905,19 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>212</v>
+        <v>294</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6182,10 +5934,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6205,20 +5957,18 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6267,7 +6017,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6276,7 +6026,7 @@
         <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>101</v>
@@ -6288,7 +6038,7 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6296,10 +6046,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6319,20 +6069,18 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>223</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6357,13 +6105,13 @@
         <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>77</v>
@@ -6381,7 +6129,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6402,7 +6150,7 @@
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6410,10 +6158,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6436,17 +6184,15 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6495,7 +6241,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6516,7 +6262,7 @@
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6524,10 +6270,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6547,20 +6293,18 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6609,7 +6353,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6621,7 +6365,7 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6630,7 +6374,7 @@
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6638,14 +6382,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6661,16 +6405,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>312</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>313</v>
+        <v>135</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>314</v>
+        <v>136</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6709,19 +6453,17 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>310</v>
+        <v>188</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6733,10 +6475,10 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6745,17 +6487,19 @@
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>315</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6773,19 +6517,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6835,25 +6579,25 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>316</v>
+        <v>188</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -6864,14 +6608,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6884,22 +6628,26 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>323</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6947,7 +6695,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6959,7 +6707,7 @@
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -6968,7 +6716,7 @@
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6976,10 +6724,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6999,16 +6747,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>248</v>
+        <v>319</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7035,13 +6783,13 @@
         <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>77</v>
@@ -7059,7 +6807,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7071,7 +6819,7 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7080,7 +6828,7 @@
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>77</v>
@@ -7088,10 +6836,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7102,7 +6850,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7111,16 +6859,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>135</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7159,29 +6907,31 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7198,14 +6948,12 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7214,7 +6962,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7226,22 +6974,22 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="R48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7285,7 +7033,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>212</v>
+        <v>326</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7294,10 +7042,10 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7314,46 +7062,42 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7401,19 +7145,19 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7422,7 +7166,7 @@
         <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7430,21 +7174,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7456,15 +7200,17 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>261</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7513,19 +7259,19 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>339</v>
+        <v>188</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7534,7 +7280,7 @@
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7542,44 +7288,46 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>344</v>
+        <v>265</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7627,19 +7375,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7648,7 +7396,7 @@
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7656,10 +7404,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7667,7 +7415,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>89</v>
@@ -7679,23 +7427,19 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7719,13 +7463,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7743,16 +7487,16 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>101</v>
@@ -7772,10 +7516,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7783,10 +7527,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7795,16 +7539,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7855,13 +7599,13 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
@@ -7884,10 +7628,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7898,7 +7642,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7907,23 +7651,27 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>247</v>
+        <v>343</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="R54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7943,13 +7691,13 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -7967,19 +7715,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>210</v>
+        <v>342</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7988,7 +7736,7 @@
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -7996,10 +7744,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8019,18 +7767,20 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>135</v>
+        <v>352</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8055,29 +7805,31 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8089,7 +7841,7 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8106,14 +7858,12 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>359</v>
-      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8131,19 +7881,19 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8169,13 +7919,13 @@
         <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
@@ -8193,7 +7943,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>212</v>
+        <v>357</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8202,10 +7952,10 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8222,14 +7972,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8242,26 +7992,24 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8285,13 +8033,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8309,7 +8057,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8321,7 +8069,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8330,7 +8078,7 @@
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8338,10 +8086,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8349,10 +8097,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8364,15 +8112,17 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>366</v>
+        <v>199</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8397,13 +8147,13 @@
         <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>77</v>
@@ -8421,13 +8171,13 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
@@ -8450,10 +8200,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8473,18 +8223,20 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8533,7 +8285,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8562,10 +8314,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8576,7 +8328,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8585,23 +8337,25 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="Q60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="R60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8645,13 +8399,13 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
@@ -8666,7 +8420,7 @@
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8674,10 +8428,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8697,16 +8451,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>323</v>
+        <v>183</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>377</v>
+        <v>257</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>378</v>
+        <v>258</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8757,7 +8511,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8769,7 +8523,7 @@
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
@@ -8778,7 +8532,7 @@
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8786,21 +8540,21 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8812,15 +8566,17 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8869,19 +8625,19 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
@@ -8890,7 +8646,7 @@
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8898,14 +8654,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8918,22 +8674,26 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
       </c>
@@ -8969,17 +8729,19 @@
         <v>77</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9000,7 +8762,7 @@
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9008,23 +8770,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9033,20 +8793,18 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>383</v>
+        <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>77</v>
@@ -9071,13 +8829,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -9095,19 +8853,19 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>212</v>
+        <v>386</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>77</v>
@@ -9124,46 +8882,42 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>392</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9211,19 +8965,19 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -9232,7 +8986,7 @@
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>77</v>
@@ -9240,10 +8994,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9254,7 +9008,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9263,16 +9017,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9299,13 +9053,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9323,13 +9077,13 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
@@ -9347,2276 +9101,6 @@
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q68" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q74" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q80" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN86" t="s" s="2">
         <v>77</v>
       </c>
     </row>
